--- a/documentation/Waitster Testing (V&V).xlsx
+++ b/documentation/Waitster Testing (V&V).xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16040" tabRatio="500" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Field Validation" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Data Validation" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="UI Validation" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Remediation" sheetId="4" r:id="rId6"/>
+    <sheet name="Field Validation" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Validation" sheetId="2" r:id="rId2"/>
+    <sheet name="UI Validation" sheetId="3" r:id="rId3"/>
+    <sheet name="Remediation" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="123">
   <si>
     <t>Page Name</t>
   </si>
@@ -380,28 +388,39 @@
   </si>
   <si>
     <t>Search isn't taking the input of special characters</t>
+  </si>
+  <si>
+    <t>Kristel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -409,7 +428,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -436,6 +455,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -448,6 +468,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -460,6 +481,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -474,389 +496,703 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="16.0"/>
-    <col customWidth="1" min="7" max="7" width="11.0"/>
-    <col customWidth="1" min="9" max="9" width="31.86"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="5" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="5" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5">
-        <v>700.0</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="5" t="s">
+      <c r="I5" s="18">
+        <v>700</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="J8" s="19"/>
+      <c r="K8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="9" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="9" t="s">
+      <c r="J11" s="19"/>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="12" t="s">
+      <c r="J12" s="19"/>
+      <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
@@ -869,753 +1205,758 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="17.57"/>
-    <col customWidth="1" min="6" max="6" width="77.71"/>
-    <col customWidth="1" min="7" max="7" width="29.57"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="77.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="6" t="s">
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="6" t="s">
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="6" t="s">
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="6" t="s">
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="6" t="s">
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="6" t="s">
+      <c r="I9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="6" t="s">
+      <c r="I10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="6" t="s">
+      <c r="I11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="6" t="s">
+      <c r="I12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="6" t="s">
+      <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="6" t="s">
+      <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F3"/>
-    <hyperlink r:id="rId2" ref="F4"/>
-    <hyperlink r:id="rId3" ref="F5"/>
-    <hyperlink r:id="rId4" ref="F6"/>
-    <hyperlink r:id="rId5" ref="F7"/>
-    <hyperlink r:id="rId6" ref="F8"/>
-    <hyperlink r:id="rId7" ref="F10"/>
-    <hyperlink r:id="rId8" ref="F11"/>
-    <hyperlink r:id="rId9" ref="F12"/>
-    <hyperlink r:id="rId10" ref="F13"/>
-    <hyperlink r:id="rId11" ref="F14"/>
-    <hyperlink r:id="rId12" ref="F15"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="F12" r:id="rId9"/>
+    <hyperlink ref="F13" r:id="rId10"/>
+    <hyperlink ref="F14" r:id="rId11"/>
+    <hyperlink ref="F15" r:id="rId12"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.43"/>
-    <col customWidth="1" min="3" max="3" width="25.29"/>
-    <col customWidth="1" min="4" max="4" width="87.43"/>
-    <col customWidth="1" min="5" max="5" width="14.14"/>
-    <col customWidth="1" min="6" max="6" width="21.43"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="87.5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="6" t="s">
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="6" t="s">
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="11" t="s">
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="11" t="s">
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="6" t="s">
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="6" t="s">
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="6" t="s">
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B10" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="6" t="s">
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="6" t="s">
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="6" t="s">
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="6" t="s">
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="6" t="s">
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="18.14"/>
-    <col customWidth="1" min="4" max="4" width="44.71"/>
-    <col customWidth="1" min="5" max="7" width="18.14"/>
+    <col min="2" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="7" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="21">
-        <v>42116.0</v>
-      </c>
-      <c r="G3" s="22">
-        <v>42117.0</v>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="17">
+        <v>42117</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>